--- a/LSL/Transactional Data/Management Reports/task-list.xlsx
+++ b/LSL/Transactional Data/Management Reports/task-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="305">
   <si>
     <t>.Timestamp from PBSA is defaukt and it is 00:00:00</t>
   </si>
@@ -819,6 +819,126 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>done-tasks</t>
+  </si>
+  <si>
+    <t>MD 50 4th week</t>
+  </si>
+  <si>
+    <t>JE and AP batches restriction\</t>
+  </si>
+  <si>
+    <t>approval to pbsa payload\</t>
+  </si>
+  <si>
+    <t>PR approvals from APEX UI-line level status flags for PR and SUP RET tables - Eg. no items in lorry of the supplier &amp; rejected lines testing or reject real time scenario 3rd week</t>
+  </si>
+  <si>
+    <t>sup-ret-req-&gt;outlet-&gt;ho-&gt;approve-&gt;oracle-&gt;apex approve for request-&gt;ret approval to pbsa payload-&gt;send to outlet from ho-&gt;import summary\</t>
+  </si>
+  <si>
+    <t>PR creation\approval\rejected lines - need testing...\</t>
+  </si>
+  <si>
+    <t>negative PR for supplier return and PR approval X</t>
+  </si>
+  <si>
+    <t>define supplier return request set (XXPBSA_SUPPLIER_RET_PRC, XXPBSA_RETURN_TO_VENDOR)\ and SR testing\</t>
+  </si>
+  <si>
+    <t>sales\payments developed API for AR credit trx\3rd week</t>
+  </si>
+  <si>
+    <t>JEs-till bankdepo\credit 3rd week\</t>
+  </si>
+  <si>
+    <t>oracle alert for supplier customer term based and approval pending 2nd week\</t>
+  </si>
+  <si>
+    <t>updation of summary data - merge like delivey summary 2nd week\</t>
+  </si>
+  <si>
+    <t>email - product updates &amp; supplier updates/GUID has updated from oracle confirmed by pbsa\</t>
+  </si>
+  <si>
+    <t>supplier dff (personalize supplier based on employee), PO dff outlet\ and receiving control\ 5th week</t>
+  </si>
+  <si>
+    <t>PO detail report rdf for no data\</t>
+  </si>
+  <si>
+    <t>Settlement email to supplier\customer\</t>
+  </si>
+  <si>
+    <t>store testing\email notif. after hitting APEX to update\add flex field value set\ included in Tech. Ref Manual 5th week</t>
+  </si>
+  <si>
+    <t>reports - grns\po\ 5th week</t>
+  </si>
+  <si>
+    <t>gl posting from plsql\7th week</t>
+  </si>
+  <si>
+    <t>call to work on Saturday at LSL X</t>
+  </si>
+  <si>
+    <t>Item import org issue\8th week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch name and invoice number update </t>
+  </si>
+  <si>
+    <t>payable source - invoice solution\7th week</t>
+  </si>
+  <si>
+    <t>SR report REF pbsa return note\7th week</t>
+  </si>
+  <si>
+    <t>invoice value changes notification\7th week</t>
+  </si>
+  <si>
+    <t>GRN ref. to Invoice\ - focus to line block - done with conc.\7th week</t>
+  </si>
+  <si>
+    <t>update response from sup ret and rej lines - after EMAIL not payload accepting\</t>
+  </si>
+  <si>
+    <t>po/grn/sup-ret creation email - add a notifier-gl interface\requi excep seeded reports\</t>
+  </si>
+  <si>
+    <t>3. custom reports or std for reporting list\</t>
+  </si>
+  <si>
+    <t>4. sale pay\ ret pay testing, new GL sources categories config. 6th week &amp; credit sales CR\</t>
+  </si>
+  <si>
+    <t>5. Item testing (update pkg ready but policy required-sr x) supplier testing\ 6th week</t>
+  </si>
+  <si>
+    <t>6. po qty. tolerance (for more grns and dynamic srs - po for loop and imparatively running conc. plus recursively - inv. rank and sr proc.) po reject-&gt; rcv cont-&gt; auto create new with apex rejected (no non approval will take to supplier return summary and\or purchase request x)-SR EXT.REF#\8th week</t>
+  </si>
+  <si>
+    <t>date required po fixture\8th week</t>
+  </si>
+  <si>
+    <t>store IDs from current 10 and 2 child done coding(note in CHILD stores how???) installing microservices and data conversion cutover\</t>
+  </si>
+  <si>
+    <t>write to clob\9th week</t>
+  </si>
+  <si>
+    <t>index po APEX tables\9th week</t>
+  </si>
+  <si>
+    <t>finalize supplier return\10th week</t>
+  </si>
+  <si>
+    <t>GUID case\10th week</t>
+  </si>
+  <si>
+    <t>XXPBSA_ENDPOINTS - outlet - connectivity\11th week</t>
   </si>
 </sst>
 </file>
@@ -1140,9 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C275" sqref="C275"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4973,6 +5095,566 @@
         <v>810444</v>
       </c>
     </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C274" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D274" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C275" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D275" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C276" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D276" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C277" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D277" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C278" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D278" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C279" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D279" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C280" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D280" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C281" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D281" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C282" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D282" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C283" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D283" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C284" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D284" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C285" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D285" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C286" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D286" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C287" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D287" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C288" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D288" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C289" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D289" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C290" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D290" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C291" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D291" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C292" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D292" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C293" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D293" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C294" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D294" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C295" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D295" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C296" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D296" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C297" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D297" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C298" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D298" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C299" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D299" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C300" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D300" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C301" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D301" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C302" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D302" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C303" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D303" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C304" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D304" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C305" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D305" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C306" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D306" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C307" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D307" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C308" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D308" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C309" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D309" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C310" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D310" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C311" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D311" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C312" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D312" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C313" s="2">
+        <v>810565</v>
+      </c>
+      <c r="D313" s="2">
+        <v>810626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LSL/Transactional Data/Management Reports/task-list.xlsx
+++ b/LSL/Transactional Data/Management Reports/task-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="311">
   <si>
     <t>.Timestamp from PBSA is defaukt and it is 00:00:00</t>
   </si>
@@ -939,6 +939,24 @@
   </si>
   <si>
     <t>XXPBSA_ENDPOINTS - outlet - connectivity\11th week</t>
+  </si>
+  <si>
+    <t>Sup. ret. weighted avg confirmation/</t>
+  </si>
+  <si>
+    <t>partial grn from same po/</t>
+  </si>
+  <si>
+    <t>ap invoice batch testing/</t>
+  </si>
+  <si>
+    <t>sequence+with outletid in sales\pay/-db sequence used</t>
+  </si>
+  <si>
+    <t>po screen - re-named column for ship to location instead of dff/</t>
+  </si>
+  <si>
+    <t>identify warehouse -&gt; outlet transfer from a notification sent based on the inter-stock and Hold payment till inter-stock doneX</t>
   </si>
 </sst>
 </file>
@@ -1260,11 +1278,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C275" sqref="C275"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5151,7 +5167,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -5165,7 +5181,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -5179,7 +5195,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -5207,7 +5223,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -5221,7 +5237,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -5249,7 +5265,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -5263,7 +5279,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -5277,7 +5293,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -5291,7 +5307,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -5459,7 +5475,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -5473,7 +5489,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -5487,7 +5503,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -5515,7 +5531,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -5529,7 +5545,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -5543,7 +5559,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -5571,7 +5587,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -5641,7 +5657,7 @@
         <v>810626</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -5652,6 +5668,90 @@
         <v>810565</v>
       </c>
       <c r="D313" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C314" s="2">
+        <v>810626</v>
+      </c>
+      <c r="D314" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C315" s="2">
+        <v>810626</v>
+      </c>
+      <c r="D315" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C316" s="2">
+        <v>810626</v>
+      </c>
+      <c r="D316" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C317" s="2">
+        <v>810626</v>
+      </c>
+      <c r="D317" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C318" s="2">
+        <v>810626</v>
+      </c>
+      <c r="D318" s="2">
+        <v>810626</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C319" s="2">
+        <v>810626</v>
+      </c>
+      <c r="D319" s="2">
         <v>810626</v>
       </c>
     </row>
